--- a/Д_з 4.xlsx
+++ b/Д_з 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>№</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Общее количество тестов</t>
+  </si>
+  <si>
+    <t>пройден</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1561,7 +1564,9 @@
       <c r="G8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1896,7 +1901,7 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="16">
+      <c r="B17" s="29">
         <v>11</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -1937,8 +1942,8 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="16">
-        <v>11</v>
+      <c r="B18" s="29">
+        <v>12</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="16" t="s">
@@ -1976,8 +1981,8 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="16">
-        <v>11</v>
+      <c r="B19" s="29">
+        <v>13</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="16" t="s">
@@ -2015,8 +2020,8 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="16">
-        <v>11</v>
+      <c r="B20" s="29">
+        <v>14</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="16" t="s">
@@ -2054,8 +2059,8 @@
     </row>
     <row r="21" spans="1:27" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="16">
-        <v>11</v>
+      <c r="B21" s="29">
+        <v>15</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="16" t="s">
@@ -2093,8 +2098,8 @@
     </row>
     <row r="22" spans="1:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="16">
-        <v>6</v>
+      <c r="B22" s="29">
+        <v>16</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="16" t="s">
@@ -2132,8 +2137,8 @@
     </row>
     <row r="23" spans="1:27" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="16">
-        <v>6</v>
+      <c r="B23" s="29">
+        <v>17</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="16" t="s">
@@ -2171,8 +2176,8 @@
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="16">
-        <v>6</v>
+      <c r="B24" s="29">
+        <v>18</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="40" t="s">
@@ -2210,8 +2215,8 @@
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="16">
-        <v>6</v>
+      <c r="B25" s="29">
+        <v>19</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="40" t="s">
@@ -2247,8 +2252,8 @@
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="16">
-        <v>6</v>
+      <c r="B26" s="29">
+        <v>20</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="40" t="s">
@@ -2284,8 +2289,8 @@
     </row>
     <row r="27" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="16">
-        <v>6</v>
+      <c r="B27" s="29">
+        <v>21</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="13"/>
@@ -2315,8 +2320,8 @@
     </row>
     <row r="28" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="16">
-        <v>6</v>
+      <c r="B28" s="29">
+        <v>22</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2346,8 +2351,8 @@
     </row>
     <row r="29" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="16">
-        <v>6</v>
+      <c r="B29" s="29">
+        <v>23</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="13"/>
@@ -2377,8 +2382,8 @@
     </row>
     <row r="30" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="16">
-        <v>6</v>
+      <c r="B30" s="29">
+        <v>24</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -2408,8 +2413,8 @@
     </row>
     <row r="31" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="16">
-        <v>6</v>
+      <c r="B31" s="29">
+        <v>25</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2439,8 +2444,8 @@
     </row>
     <row r="32" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="16">
-        <v>6</v>
+      <c r="B32" s="29">
+        <v>26</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="13"/>
@@ -2470,8 +2475,8 @@
     </row>
     <row r="33" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="16">
-        <v>6</v>
+      <c r="B33" s="29">
+        <v>27</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2501,8 +2506,8 @@
     </row>
     <row r="34" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="16">
-        <v>6</v>
+      <c r="B34" s="29">
+        <v>28</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
